--- a/Dragonfall/gameData/shared/DragonSkills.xlsx
+++ b/Dragonfall/gameData/shared/DragonSkills.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="25620" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="7340" yWindow="0" windowWidth="33580" windowHeight="20520" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="hellFire" sheetId="63" r:id="rId1"/>
@@ -290,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1500">
+  <cellStyleXfs count="1514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -305,6 +305,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1817,7 +1831,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1500">
+  <cellStyles count="1514">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2570,6 +2584,13 @@
     <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3315,6 +3336,13 @@
     <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3764,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3781,7 +3809,7 @@
     <col min="7" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,276 +3820,257 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="C2" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="19" customHeight="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="2">
-        <v>180</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C5" s="2">
-        <v>260</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="C6" s="2">
-        <v>340</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="C7" s="2">
-        <v>840</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="C8" s="2">
-        <v>1220</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="C9" s="2">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="C10" s="2">
-        <v>2080</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+        <v>13840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="C11" s="2">
-        <v>2580</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+        <v>17080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="C12" s="2">
-        <v>6660</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.24</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C13" s="2">
-        <v>9880</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="C14" s="2">
-        <v>13720</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+        <v>91400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="C15" s="2">
-        <v>18180</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+        <v>121120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
       <c r="C16" s="2">
-        <v>23240</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+        <v>154880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.32</v>
+        <v>0.69</v>
       </c>
       <c r="C17" s="2">
-        <v>44240</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+        <v>294920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.34</v>
+        <v>0.72</v>
       </c>
       <c r="C18" s="2">
-        <v>60220</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+        <v>401440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="C19" s="2">
-        <v>78660</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+        <v>524320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="C20" s="2">
-        <v>99540</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+        <v>663560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0.4</v>
+        <v>0.81000000000000105</v>
       </c>
       <c r="C21" s="2">
-        <v>122880</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="20" customHeight="1">
@@ -4281,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4314,8 +4323,8 @@
       <c r="B2" s="4">
         <v>0.02</v>
       </c>
-      <c r="C2" s="4">
-        <v>40</v>
+      <c r="C2" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -4325,8 +4334,8 @@
       <c r="B3" s="4">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="C3" s="2">
+        <v>240</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -4337,8 +4346,8 @@
       <c r="B4" s="4">
         <v>0.06</v>
       </c>
-      <c r="C4" s="4">
-        <v>180</v>
+      <c r="C4" s="2">
+        <v>400</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4349,8 +4358,8 @@
       <c r="B5" s="4">
         <v>0.08</v>
       </c>
-      <c r="C5" s="4">
-        <v>260</v>
+      <c r="C5" s="2">
+        <v>580</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -4361,8 +4370,8 @@
       <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>340</v>
+      <c r="C6" s="2">
+        <v>800</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -4373,8 +4382,8 @@
       <c r="B7" s="4">
         <v>0.12</v>
       </c>
-      <c r="C7" s="4">
-        <v>840</v>
+      <c r="C7" s="2">
+        <v>1960</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -4385,8 +4394,8 @@
       <c r="B8" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+      <c r="C8" s="2">
+        <v>2820</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4397,8 +4406,8 @@
       <c r="B9" s="4">
         <v>0.16</v>
       </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+      <c r="C9" s="2">
+        <v>3780</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4409,8 +4418,8 @@
       <c r="B10" s="4">
         <v>0.18</v>
       </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+      <c r="C10" s="2">
+        <v>4840</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -4421,8 +4430,8 @@
       <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+      <c r="C11" s="2">
+        <v>5980</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -4433,8 +4442,8 @@
       <c r="B12" s="4">
         <v>0.22</v>
       </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+      <c r="C12" s="2">
+        <v>15520</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -4445,8 +4454,8 @@
       <c r="B13" s="4">
         <v>0.24</v>
       </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+      <c r="C13" s="2">
+        <v>23040</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4457,8 +4466,8 @@
       <c r="B14" s="4">
         <v>0.26</v>
       </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+      <c r="C14" s="2">
+        <v>32000</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4469,8 +4478,8 @@
       <c r="B15" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+      <c r="C15" s="2">
+        <v>42400</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -4481,8 +4490,8 @@
       <c r="B16" s="4">
         <v>0.3</v>
       </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+      <c r="C16" s="2">
+        <v>54220</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -4493,8 +4502,8 @@
       <c r="B17" s="4">
         <v>0.32</v>
       </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+      <c r="C17" s="2">
+        <v>103220</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -4505,8 +4514,8 @@
       <c r="B18" s="4">
         <v>0.34</v>
       </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+      <c r="C18" s="2">
+        <v>140500</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -4517,8 +4526,8 @@
       <c r="B19" s="4">
         <v>0.36</v>
       </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+      <c r="C19" s="2">
+        <v>183520</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -4529,8 +4538,8 @@
       <c r="B20" s="4">
         <v>0.38</v>
       </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+      <c r="C20" s="2">
+        <v>232260</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -4541,8 +4550,8 @@
       <c r="B21" s="4">
         <v>0.4</v>
       </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+      <c r="C21" s="2">
+        <v>286720</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -4797,7 +4806,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4829,8 +4838,8 @@
       <c r="B2" s="4">
         <v>0.02</v>
       </c>
-      <c r="C2" s="4">
-        <v>40</v>
+      <c r="C2" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -4840,8 +4849,8 @@
       <c r="B3" s="4">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="C3" s="2">
+        <v>340</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -4852,8 +4861,8 @@
       <c r="B4" s="4">
         <v>0.06</v>
       </c>
-      <c r="C4" s="4">
-        <v>180</v>
+      <c r="C4" s="2">
+        <v>580</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4864,8 +4873,8 @@
       <c r="B5" s="4">
         <v>0.08</v>
       </c>
-      <c r="C5" s="4">
-        <v>260</v>
+      <c r="C5" s="2">
+        <v>840</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -4876,8 +4885,8 @@
       <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>340</v>
+      <c r="C6" s="2">
+        <v>1140</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -4888,8 +4897,8 @@
       <c r="B7" s="4">
         <v>0.12</v>
       </c>
-      <c r="C7" s="4">
-        <v>840</v>
+      <c r="C7" s="2">
+        <v>2780</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -4900,8 +4909,8 @@
       <c r="B8" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+      <c r="C8" s="2">
+        <v>4040</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4912,8 +4921,8 @@
       <c r="B9" s="4">
         <v>0.16</v>
       </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+      <c r="C9" s="2">
+        <v>5400</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4924,8 +4933,8 @@
       <c r="B10" s="4">
         <v>0.18</v>
       </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+      <c r="C10" s="2">
+        <v>6920</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -4936,8 +4945,8 @@
       <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+      <c r="C11" s="2">
+        <v>8540</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -4948,8 +4957,8 @@
       <c r="B12" s="4">
         <v>0.22</v>
       </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+      <c r="C12" s="2">
+        <v>22160</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -4960,8 +4969,8 @@
       <c r="B13" s="4">
         <v>0.24</v>
       </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+      <c r="C13" s="2">
+        <v>32900</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4972,8 +4981,8 @@
       <c r="B14" s="4">
         <v>0.26</v>
       </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+      <c r="C14" s="2">
+        <v>45700</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4984,8 +4993,8 @@
       <c r="B15" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+      <c r="C15" s="2">
+        <v>60560</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -4996,8 +5005,8 @@
       <c r="B16" s="4">
         <v>0.3</v>
       </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+      <c r="C16" s="2">
+        <v>77440</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -5008,8 +5017,8 @@
       <c r="B17" s="4">
         <v>0.32</v>
       </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+      <c r="C17" s="2">
+        <v>147460</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -5020,8 +5029,8 @@
       <c r="B18" s="4">
         <v>0.34</v>
       </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+      <c r="C18" s="2">
+        <v>200720</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -5032,8 +5041,8 @@
       <c r="B19" s="4">
         <v>0.36</v>
       </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+      <c r="C19" s="2">
+        <v>262160</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -5044,8 +5053,8 @@
       <c r="B20" s="4">
         <v>0.38</v>
       </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+      <c r="C20" s="2">
+        <v>331780</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -5056,8 +5065,8 @@
       <c r="B21" s="4">
         <v>0.4</v>
       </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+      <c r="C21" s="2">
+        <v>409600</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -5312,7 +5321,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5342,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -5353,10 +5362,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
+        <v>340</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5365,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>580</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5377,10 +5386,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="2">
+        <v>840</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5389,10 +5398,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1140</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -5401,10 +5410,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2780</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5413,10 +5422,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4040</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -5425,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5400</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5437,10 +5446,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6920</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5449,10 +5458,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8540</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5461,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22160</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -5473,10 +5482,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32900</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -5485,10 +5494,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45700</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -5497,10 +5506,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60560</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -5509,10 +5518,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>77440</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -5521,10 +5530,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>147460</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -5533,10 +5542,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200720</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -5545,10 +5554,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>262160</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -5557,10 +5566,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+        <v>0.19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>331780</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -5569,10 +5578,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>409600</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -5826,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5857,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -5868,10 +5877,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+        <v>0.06</v>
+      </c>
+      <c r="C3" s="2">
+        <v>340</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5880,10 +5889,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="2">
+        <v>580</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5892,10 +5901,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>840</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5904,10 +5913,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1140</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -5916,10 +5925,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
+        <v>0.18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2780</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5928,10 +5937,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4040</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -5940,10 +5949,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+        <v>0.24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5400</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5952,10 +5961,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+        <v>0.27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6920</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5964,10 +5973,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8540</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5976,10 +5985,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+        <v>0.33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22160</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -5988,10 +5997,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+        <v>0.36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32900</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -6000,10 +6009,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+        <v>0.39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45700</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -6012,10 +6021,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+        <v>0.42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60560</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -6024,10 +6033,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+        <v>0.45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>77440</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -6036,10 +6045,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+        <v>0.48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>147460</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -6048,10 +6057,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+        <v>0.51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200720</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -6060,10 +6069,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+        <v>0.54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>262160</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -6072,10 +6081,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C20" s="2">
+        <v>331780</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -6084,10 +6093,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>409600</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -6338,6 +6347,522 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="C2" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>680</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="19" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1680</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2280</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5560</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8080</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10800</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13840</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17080</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44320</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65800</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>91400</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>121120</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>154880</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>294920</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>401440</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>524320</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>663560</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>819200</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="20" customHeight="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="20" customHeight="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="20" customHeight="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="20" customHeight="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="20" customHeight="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="20" customHeight="1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" ht="20" customHeight="1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="20" customHeight="1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="20" customHeight="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="20" customHeight="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="20" customHeight="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="20" customHeight="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="20" customHeight="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="20" customHeight="1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="20" customHeight="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="20" customHeight="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="20" customHeight="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="20" customHeight="1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="20" customHeight="1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="20" customHeight="1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" ht="20" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="20" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" ht="20" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="20" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="20" customHeight="1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" ht="20" customHeight="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="20" customHeight="1">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="20" customHeight="1">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="20" customHeight="1">
+      <c r="A99" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
@@ -6372,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="4">
         <v>40</v>
@@ -6383,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -6395,7 +6920,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="4">
         <v>180</v>
@@ -6407,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="C5" s="4">
         <v>260</v>
@@ -6419,7 +6944,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="4">
         <v>340</v>
@@ -6431,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C7" s="4">
         <v>840</v>
@@ -6455,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C9" s="4">
         <v>1620</v>
@@ -6467,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="C10" s="4">
         <v>2080</v>
@@ -6479,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C11" s="4">
         <v>2580</v>
@@ -6491,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="C12" s="4">
         <v>6660</v>
@@ -6503,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C13" s="4">
         <v>9880</v>
@@ -6515,7 +7040,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="4">
         <v>13720</v>
@@ -6527,7 +7052,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="C15" s="4">
         <v>18180</v>
@@ -6539,7 +7064,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="C16" s="4">
         <v>23240</v>
@@ -6551,7 +7076,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="C17" s="4">
         <v>44240</v>
@@ -6563,7 +7088,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="C18" s="4">
         <v>60220</v>
@@ -6575,7 +7100,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="4">
         <v>78660</v>
@@ -6587,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="C20" s="4">
         <v>99540</v>
@@ -6599,522 +7124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" ht="20" customHeight="1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" ht="20" customHeight="1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" ht="20" customHeight="1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" ht="20" customHeight="1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" ht="20" customHeight="1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" ht="20" customHeight="1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" ht="20" customHeight="1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" ht="20" customHeight="1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" ht="20" customHeight="1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" ht="20" customHeight="1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" ht="20" customHeight="1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" ht="20" customHeight="1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" ht="20" customHeight="1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" ht="20" customHeight="1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" ht="20" customHeight="1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="20" customHeight="1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="20" customHeight="1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="20" customHeight="1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="20" customHeight="1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="20" customHeight="1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="20" customHeight="1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="20" customHeight="1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="20" customHeight="1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="20" customHeight="1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="20" customHeight="1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="20" customHeight="1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="20" customHeight="1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="20" customHeight="1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="20" customHeight="1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="20" customHeight="1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="20" customHeight="1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="20" customHeight="1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="19" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="C21" s="4">
         <v>122880</v>
@@ -7372,7 +7382,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7402,9 +7412,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
         <v>40</v>
       </c>
     </row>
@@ -7413,9 +7423,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="3"/>
@@ -7425,9 +7435,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2">
         <v>180</v>
       </c>
       <c r="D4" s="3"/>
@@ -7437,9 +7447,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="2">
         <v>260</v>
       </c>
       <c r="D5" s="3"/>
@@ -7449,9 +7459,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
         <v>340</v>
       </c>
       <c r="D6" s="3"/>
@@ -7461,9 +7471,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="2">
         <v>840</v>
       </c>
       <c r="D7" s="3"/>
@@ -7473,9 +7483,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>1220</v>
       </c>
       <c r="D8" s="3"/>
@@ -7485,9 +7495,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="2">
         <v>1620</v>
       </c>
       <c r="D9" s="3"/>
@@ -7497,9 +7507,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="2">
         <v>2080</v>
       </c>
       <c r="D10" s="3"/>
@@ -7509,9 +7519,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
         <v>2580</v>
       </c>
       <c r="D11" s="3"/>
@@ -7521,9 +7531,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="2">
         <v>6660</v>
       </c>
       <c r="D12" s="3"/>
@@ -7533,9 +7543,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2">
         <v>9880</v>
       </c>
       <c r="D13" s="3"/>
@@ -7545,9 +7555,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="2">
         <v>13720</v>
       </c>
       <c r="D14" s="3"/>
@@ -7557,9 +7567,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="2">
         <v>18180</v>
       </c>
       <c r="D15" s="3"/>
@@ -7569,9 +7579,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
         <v>23240</v>
       </c>
       <c r="D16" s="3"/>
@@ -7581,9 +7591,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="2">
         <v>44240</v>
       </c>
       <c r="D17" s="3"/>
@@ -7593,9 +7603,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
         <v>60220</v>
       </c>
       <c r="D18" s="3"/>
@@ -7605,9 +7615,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="2">
         <v>78660</v>
       </c>
       <c r="D19" s="3"/>
@@ -7617,9 +7627,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C20" s="2">
         <v>99540</v>
       </c>
       <c r="D20" s="3"/>
@@ -7629,9 +7639,9 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2">
         <v>122880</v>
       </c>
       <c r="D21" s="3"/>
@@ -7887,7 +7897,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7917,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="4">
         <v>40</v>
@@ -7928,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -7940,7 +7950,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="C4" s="4">
         <v>180</v>
@@ -7952,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="4">
         <v>260</v>
@@ -7964,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="4">
         <v>340</v>
@@ -7976,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="C7" s="4">
         <v>840</v>
@@ -7988,7 +7998,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="4">
         <v>1220</v>
@@ -8000,7 +8010,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="C9" s="4">
         <v>1620</v>
@@ -8012,7 +8022,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="C10" s="4">
         <v>2080</v>
@@ -8024,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="4">
         <v>2580</v>
@@ -8036,7 +8046,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="C12" s="4">
         <v>6660</v>
@@ -8048,7 +8058,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="C13" s="4">
         <v>9880</v>
@@ -8060,7 +8070,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="C14" s="4">
         <v>13720</v>
@@ -8072,7 +8082,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="4">
         <v>18180</v>
@@ -8084,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="C16" s="4">
         <v>23240</v>
@@ -8096,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="C17" s="4">
         <v>44240</v>
@@ -8108,7 +8118,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="C18" s="4">
         <v>60220</v>
@@ -8120,7 +8130,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="C19" s="4">
         <v>78660</v>
@@ -8132,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="4">
         <v>99540</v>
@@ -8144,7 +8154,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="4">
         <v>122880</v>
@@ -8402,7 +8412,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8432,10 +8442,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8443,10 +8453,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -8455,10 +8465,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -8467,10 +8477,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -8479,10 +8489,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -8491,10 +8501,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="2">
+        <v>980</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -8503,10 +8513,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1420</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -8515,10 +8525,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1900</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -8527,10 +8537,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2420</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -8539,10 +8549,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -8551,10 +8561,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7760</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -8563,10 +8573,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11520</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -8575,10 +8585,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16000</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -8587,10 +8597,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21200</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -8599,10 +8609,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>27120</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -8611,10 +8621,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>51620</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -8623,10 +8633,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>70260</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -8635,10 +8645,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>91760</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -8647,10 +8657,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+        <v>0.19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>116140</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -8659,10 +8669,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>143360</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -8917,7 +8927,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8947,10 +8957,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8958,10 +8968,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -8970,10 +8980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -8982,10 +8992,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -8994,10 +9004,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -9006,10 +9016,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="2">
+        <v>980</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -9018,10 +9028,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1420</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -9030,10 +9040,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1900</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -9042,10 +9052,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2420</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -9054,10 +9064,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3000</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -9066,10 +9076,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7760</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -9078,10 +9088,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11520</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -9090,10 +9100,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16000</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -9102,10 +9112,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21200</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -9114,10 +9124,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>27120</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9126,10 +9136,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>51620</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -9138,10 +9148,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>70260</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -9150,10 +9160,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>91760</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -9162,10 +9172,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+        <v>0.19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>116140</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -9174,10 +9184,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>143360</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -9432,7 +9442,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9464,8 +9474,8 @@
       <c r="B2" s="4">
         <v>0.02</v>
       </c>
-      <c r="C2" s="4">
-        <v>40</v>
+      <c r="C2" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -9475,8 +9485,8 @@
       <c r="B3" s="4">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="C3" s="2">
+        <v>200</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -9487,8 +9497,8 @@
       <c r="B4" s="4">
         <v>0.06</v>
       </c>
-      <c r="C4" s="4">
-        <v>180</v>
+      <c r="C4" s="2">
+        <v>340</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -9499,8 +9509,8 @@
       <c r="B5" s="4">
         <v>0.08</v>
       </c>
-      <c r="C5" s="4">
-        <v>260</v>
+      <c r="C5" s="2">
+        <v>500</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -9511,8 +9521,8 @@
       <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>340</v>
+      <c r="C6" s="2">
+        <v>680</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -9523,8 +9533,8 @@
       <c r="B7" s="4">
         <v>0.12</v>
       </c>
-      <c r="C7" s="4">
-        <v>840</v>
+      <c r="C7" s="2">
+        <v>1680</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -9535,8 +9545,8 @@
       <c r="B8" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+      <c r="C8" s="2">
+        <v>2420</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -9547,8 +9557,8 @@
       <c r="B9" s="4">
         <v>0.16</v>
       </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+      <c r="C9" s="2">
+        <v>3240</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -9559,8 +9569,8 @@
       <c r="B10" s="4">
         <v>0.18</v>
       </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+      <c r="C10" s="2">
+        <v>4160</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -9571,8 +9581,8 @@
       <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+      <c r="C11" s="2">
+        <v>5140</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -9583,8 +9593,8 @@
       <c r="B12" s="4">
         <v>0.22</v>
       </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+      <c r="C12" s="2">
+        <v>13300</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -9595,8 +9605,8 @@
       <c r="B13" s="4">
         <v>0.24</v>
       </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+      <c r="C13" s="2">
+        <v>19740</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -9607,8 +9617,8 @@
       <c r="B14" s="4">
         <v>0.26</v>
       </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+      <c r="C14" s="2">
+        <v>27420</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -9619,8 +9629,8 @@
       <c r="B15" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+      <c r="C15" s="2">
+        <v>36340</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -9631,8 +9641,8 @@
       <c r="B16" s="4">
         <v>0.3</v>
       </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+      <c r="C16" s="2">
+        <v>46480</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9643,8 +9653,8 @@
       <c r="B17" s="4">
         <v>0.32</v>
       </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+      <c r="C17" s="2">
+        <v>88480</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -9655,8 +9665,8 @@
       <c r="B18" s="4">
         <v>0.34</v>
       </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+      <c r="C18" s="2">
+        <v>120440</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -9667,8 +9677,8 @@
       <c r="B19" s="4">
         <v>0.36</v>
       </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+      <c r="C19" s="2">
+        <v>157300</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -9679,8 +9689,8 @@
       <c r="B20" s="4">
         <v>0.38</v>
       </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+      <c r="C20" s="2">
+        <v>199080</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -9691,8 +9701,8 @@
       <c r="B21" s="4">
         <v>0.4</v>
       </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+      <c r="C21" s="2">
+        <v>245760</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -9947,7 +9957,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9979,8 +9989,8 @@
       <c r="B2" s="4">
         <v>0.02</v>
       </c>
-      <c r="C2" s="4">
-        <v>40</v>
+      <c r="C2" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -9990,8 +10000,8 @@
       <c r="B3" s="4">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="C3" s="2">
+        <v>140</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -10002,8 +10012,8 @@
       <c r="B4" s="4">
         <v>0.06</v>
       </c>
-      <c r="C4" s="4">
-        <v>180</v>
+      <c r="C4" s="2">
+        <v>240</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -10014,8 +10024,8 @@
       <c r="B5" s="4">
         <v>0.08</v>
       </c>
-      <c r="C5" s="4">
-        <v>260</v>
+      <c r="C5" s="2">
+        <v>340</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -10026,8 +10036,8 @@
       <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>340</v>
+      <c r="C6" s="2">
+        <v>460</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -10038,8 +10048,8 @@
       <c r="B7" s="4">
         <v>0.12</v>
       </c>
-      <c r="C7" s="4">
-        <v>840</v>
+      <c r="C7" s="2">
+        <v>1120</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -10050,8 +10060,8 @@
       <c r="B8" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C8" s="4">
-        <v>1220</v>
+      <c r="C8" s="2">
+        <v>1620</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -10062,8 +10072,8 @@
       <c r="B9" s="4">
         <v>0.16</v>
       </c>
-      <c r="C9" s="4">
-        <v>1620</v>
+      <c r="C9" s="2">
+        <v>2160</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -10074,8 +10084,8 @@
       <c r="B10" s="4">
         <v>0.18</v>
       </c>
-      <c r="C10" s="4">
-        <v>2080</v>
+      <c r="C10" s="2">
+        <v>2780</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -10086,8 +10096,8 @@
       <c r="B11" s="4">
         <v>0.2</v>
       </c>
-      <c r="C11" s="4">
-        <v>2580</v>
+      <c r="C11" s="2">
+        <v>3420</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -10098,8 +10108,8 @@
       <c r="B12" s="4">
         <v>0.22</v>
       </c>
-      <c r="C12" s="4">
-        <v>6660</v>
+      <c r="C12" s="2">
+        <v>8860</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -10110,8 +10120,8 @@
       <c r="B13" s="4">
         <v>0.24</v>
       </c>
-      <c r="C13" s="4">
-        <v>9880</v>
+      <c r="C13" s="2">
+        <v>13160</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -10122,8 +10132,8 @@
       <c r="B14" s="4">
         <v>0.26</v>
       </c>
-      <c r="C14" s="4">
-        <v>13720</v>
+      <c r="C14" s="2">
+        <v>18280</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -10134,8 +10144,8 @@
       <c r="B15" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="4">
-        <v>18180</v>
+      <c r="C15" s="2">
+        <v>24220</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -10146,8 +10156,8 @@
       <c r="B16" s="4">
         <v>0.3</v>
       </c>
-      <c r="C16" s="4">
-        <v>23240</v>
+      <c r="C16" s="2">
+        <v>30980</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -10158,8 +10168,8 @@
       <c r="B17" s="4">
         <v>0.32</v>
       </c>
-      <c r="C17" s="4">
-        <v>44240</v>
+      <c r="C17" s="2">
+        <v>59000</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -10170,8 +10180,8 @@
       <c r="B18" s="4">
         <v>0.34</v>
       </c>
-      <c r="C18" s="4">
-        <v>60220</v>
+      <c r="C18" s="2">
+        <v>80300</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -10182,8 +10192,8 @@
       <c r="B19" s="4">
         <v>0.36</v>
       </c>
-      <c r="C19" s="4">
-        <v>78660</v>
+      <c r="C19" s="2">
+        <v>104860</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -10194,8 +10204,8 @@
       <c r="B20" s="4">
         <v>0.38</v>
       </c>
-      <c r="C20" s="4">
-        <v>99540</v>
+      <c r="C20" s="2">
+        <v>132720</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -10206,8 +10216,8 @@
       <c r="B21" s="4">
         <v>0.4</v>
       </c>
-      <c r="C21" s="4">
-        <v>122880</v>
+      <c r="C21" s="2">
+        <v>163840</v>
       </c>
       <c r="D21" s="3"/>
     </row>

--- a/Dragonfall/gameData/shared/DragonSkills.xlsx
+++ b/Dragonfall/gameData/shared/DragonSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="0" windowWidth="33580" windowHeight="20520" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hellFire" sheetId="63" r:id="rId1"/>
@@ -290,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1514">
+  <cellStyleXfs count="1516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -305,6 +305,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1831,7 +1833,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1514">
+  <cellStyles count="1516">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2591,6 +2593,7 @@
     <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3343,6 +3346,7 @@
     <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5835,6 +5839,1037 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C3" s="2">
+        <v>340</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="19" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="2">
+        <v>580</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>840</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1140</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2780</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4040</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5400</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6920</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8540</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22160</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32900</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45700</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60560</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>77440</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>147460</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200720</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>262160</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C20" s="2">
+        <v>331780</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>409600</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="20" customHeight="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="20" customHeight="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="20" customHeight="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="20" customHeight="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="20" customHeight="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="20" customHeight="1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" ht="20" customHeight="1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="20" customHeight="1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="20" customHeight="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="20" customHeight="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="20" customHeight="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="20" customHeight="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="20" customHeight="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="20" customHeight="1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="20" customHeight="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="20" customHeight="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="20" customHeight="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="20" customHeight="1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="20" customHeight="1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="20" customHeight="1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" ht="20" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="20" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" ht="20" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="20" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="20" customHeight="1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" ht="20" customHeight="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="20" customHeight="1">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="20" customHeight="1">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="20" customHeight="1">
+      <c r="A99" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="C2" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>680</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="19" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1680</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2280</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5560</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8080</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10800</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13840</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17080</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44320</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65800</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>91400</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>121120</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>154880</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>294920</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>401440</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>524320</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>663560</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>819200</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="20" customHeight="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="20" customHeight="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="20" customHeight="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="20" customHeight="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="20" customHeight="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="20" customHeight="1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" ht="20" customHeight="1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="20" customHeight="1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="20" customHeight="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="20" customHeight="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="20" customHeight="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="20" customHeight="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="20" customHeight="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="20" customHeight="1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="20" customHeight="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="20" customHeight="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="20" customHeight="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="20" customHeight="1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="20" customHeight="1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="20" customHeight="1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" ht="20" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="20" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" ht="20" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="20" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="20" customHeight="1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" ht="20" customHeight="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="20" customHeight="1">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="20" customHeight="1">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="20" customHeight="1">
+      <c r="A99" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
@@ -5866,10 +6901,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="2">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -5877,10 +6912,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="C3" s="2">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5889,10 +6924,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="2">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5901,10 +6936,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C5" s="2">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5913,10 +6948,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="2">
-        <v>1140</v>
+        <v>2280</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -5925,10 +6960,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="C7" s="2">
-        <v>2780</v>
+        <v>5560</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5937,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>4040</v>
+        <v>8080</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -5949,10 +6984,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="C9" s="2">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5961,10 +6996,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="C10" s="2">
-        <v>6920</v>
+        <v>13840</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5973,10 +7008,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="C11" s="2">
-        <v>8540</v>
+        <v>17080</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5985,10 +7020,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="C12" s="2">
-        <v>22160</v>
+        <v>44320</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -5997,10 +7032,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="C13" s="2">
-        <v>32900</v>
+        <v>65800</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -6009,10 +7044,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="2">
-        <v>45700</v>
+        <v>91400</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -6021,10 +7056,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="C15" s="2">
-        <v>60560</v>
+        <v>121120</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -6033,10 +7068,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="C16" s="2">
-        <v>77440</v>
+        <v>154880</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -6045,10 +7080,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="C17" s="2">
-        <v>147460</v>
+        <v>294920</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -6057,10 +7092,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
       <c r="C18" s="2">
-        <v>200720</v>
+        <v>401440</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -6069,10 +7104,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="2">
-        <v>262160</v>
+        <v>524320</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -6081,10 +7116,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.26</v>
       </c>
       <c r="C20" s="2">
-        <v>331780</v>
+        <v>663560</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -6093,1041 +7128,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" ht="20" customHeight="1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" ht="20" customHeight="1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" ht="20" customHeight="1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" ht="20" customHeight="1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" ht="20" customHeight="1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" ht="20" customHeight="1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" ht="20" customHeight="1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" ht="20" customHeight="1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" ht="20" customHeight="1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" ht="20" customHeight="1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" ht="20" customHeight="1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" ht="20" customHeight="1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" ht="20" customHeight="1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" ht="20" customHeight="1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" ht="20" customHeight="1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="20" customHeight="1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="20" customHeight="1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="20" customHeight="1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="20" customHeight="1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="20" customHeight="1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="20" customHeight="1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="20" customHeight="1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="20" customHeight="1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="20" customHeight="1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="20" customHeight="1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="20" customHeight="1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="20" customHeight="1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="20" customHeight="1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="20" customHeight="1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="20" customHeight="1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="20" customHeight="1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="20" customHeight="1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.115</v>
-      </c>
-      <c r="C2" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>680</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="19" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1160</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1680</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2280</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5560</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8080</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10800</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13840</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17080</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44320</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C13" s="2">
-        <v>65800</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="C14" s="2">
-        <v>91400</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="C15" s="2">
-        <v>121120</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>154880</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="C17" s="2">
-        <v>294920</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="C18" s="2">
-        <v>401440</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="C19" s="2">
-        <v>524320</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>663560</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="C21" s="2">
         <v>819200</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" ht="20" customHeight="1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" ht="20" customHeight="1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" ht="20" customHeight="1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" ht="20" customHeight="1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" ht="20" customHeight="1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" ht="20" customHeight="1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" ht="20" customHeight="1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" ht="20" customHeight="1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" ht="20" customHeight="1">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" ht="20" customHeight="1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" ht="20" customHeight="1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" ht="20" customHeight="1">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" ht="20" customHeight="1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" ht="20" customHeight="1">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" ht="20" customHeight="1">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="20" customHeight="1">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="20" customHeight="1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="20" customHeight="1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="20" customHeight="1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="20" customHeight="1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="20" customHeight="1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="20" customHeight="1">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="20" customHeight="1">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="20" customHeight="1">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="20" customHeight="1">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="20" customHeight="1">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="20" customHeight="1">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="20" customHeight="1">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="20" customHeight="1">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="20" customHeight="1">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="20" customHeight="1">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="20" customHeight="1">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="19" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>260</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>340</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>840</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1220</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2080</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2580</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6660</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9880</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13720</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C15" s="4">
-        <v>18180</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23240</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44240</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>60220</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C19" s="4">
-        <v>78660</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99540</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>122880</v>
       </c>
       <c r="D21" s="3"/>
     </row>

--- a/Dragonfall/gameData/shared/DragonSkills.xlsx
+++ b/Dragonfall/gameData/shared/DragonSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="30120" windowHeight="18120" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="hellFire" sheetId="63" r:id="rId1"/>
@@ -3798,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6355,7 +6355,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="C2" s="2">
         <v>280</v>
@@ -6396,7 +6396,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="2">
         <v>680</v>
@@ -6408,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.14499999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C4" s="2">
         <v>1160</v>
@@ -6420,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="2">
         <v>1680</v>
@@ -6432,7 +6432,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C6" s="2">
         <v>2280</v>
@@ -6444,7 +6444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="C7" s="2">
         <v>5560</v>
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.20499999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C8" s="2">
         <v>8080</v>
@@ -6468,7 +6468,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C9" s="2">
         <v>10800</v>
@@ -6480,7 +6480,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.23499999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C10" s="2">
         <v>13840</v>
@@ -6492,7 +6492,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C11" s="2">
         <v>17080</v>
@@ -6504,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.26500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="C12" s="2">
         <v>44320</v>
@@ -6516,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C13" s="2">
         <v>65800</v>
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C14" s="2">
         <v>91400</v>
@@ -6540,7 +6540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="2">
         <v>121120</v>
@@ -6552,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="C16" s="2">
         <v>154880</v>
@@ -6564,7 +6564,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C17" s="2">
         <v>294920</v>
@@ -6576,7 +6576,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.35499999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C18" s="2">
         <v>401440</v>
@@ -6588,7 +6588,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="2">
         <v>524320</v>
@@ -6600,7 +6600,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>0.38500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="C20" s="2">
         <v>663560</v>
@@ -6612,7 +6612,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C21" s="2">
         <v>819200</v>
@@ -6870,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
